--- a/data/expt_2/raw_transcripts/game61.xlsx
+++ b/data/expt_2/raw_transcripts/game61.xlsx
@@ -1,64 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
+  <bookViews>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="MVI_0077.MP4.csv" sheetId="1" r:id="rId4"/>
+    <sheet name="MVI_0077.MP4.csv" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="201">
-  <si>
-    <t>start</t>
-  </si>
-  <si>
-    <t>end</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>speaker</t>
-  </si>
-  <si>
-    <t>trial</t>
-  </si>
-  <si>
-    <t>role</t>
-  </si>
-  <si>
-    <t>echo</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>I'm on camera.</t>
-  </si>
-  <si>
-    <t>id110</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="203">
+  <si>
+    <t xml:space="preserve">start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">speaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">role</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm on camera.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id110</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, so now you're on camera.</t>
   </si>
   <si>
-    <t>R</t>
+    <t xml:space="preserve">R</t>
   </si>
   <si>
     <t xml:space="preserve"> And remember, if at any point you want to stop playing the game, just let me know.</t>
   </si>
   <si>
-    <t>Okay?</t>
-  </si>
-  <si>
-    <t>Okay.</t>
-  </si>
-  <si>
-    <t>Alright.</t>
+    <t xml:space="preserve">Okay?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alright.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, today, we're going to be playing a fun matching game.</t>
@@ -70,40 +79,40 @@
     <t xml:space="preserve"> So to start, you're going to press the blue button on your screen.</t>
   </si>
   <si>
-    <t>Here?</t>
-  </si>
-  <si>
-    <t>id111</t>
-  </si>
-  <si>
-    <t>Yes.</t>
-  </si>
-  <si>
-    <t>Press</t>
-  </si>
-  <si>
-    <t>Mm-hmm.</t>
-  </si>
-  <si>
-    <t>And now you're going to tap all the bubbles on your screen so you can pop them.</t>
-  </si>
-  <si>
-    <t>I popped on.</t>
-  </si>
-  <si>
-    <t>Do you go smiley face one?</t>
+    <t xml:space="preserve">Here?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Press</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mm-hmm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">And now you're going to tap all the bubbles on your screen so you can pop them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I popped on.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you go smiley face one?</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, and you're going to pop the smiley face ones too.</t>
   </si>
   <si>
-    <t>It's hard.</t>
+    <t xml:space="preserve">It's hard.</t>
   </si>
   <si>
     <t xml:space="preserve"> Yeah, you have to touch just...</t>
   </si>
   <si>
-    <t>I caught all of them.</t>
+    <t xml:space="preserve">I caught all of them.</t>
   </si>
   <si>
     <t xml:space="preserve"> Nice job! Okay, now I'm going to explain the matching game.</t>
@@ -115,13 +124,13 @@
     <t xml:space="preserve"> This is Smurphy, do you want to say hi?</t>
   </si>
   <si>
-    <t>Hi! Hi!</t>
-  </si>
-  <si>
-    <t>Great job!</t>
-  </si>
-  <si>
-    <t>You're cute!</t>
+    <t xml:space="preserve">Hi! Hi!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You're cute!</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, so in the game, on your screens you're going to see two pictures.</t>
@@ -130,16 +139,16 @@
     <t xml:space="preserve"> For one of you, you'll see a picture.</t>
   </si>
   <si>
-    <t>you'll see a picture that's inside of a black box.</t>
+    <t xml:space="preserve">you'll see a picture that's inside of a black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> It's Murphy's job to guess which picture is inside of the black box,</t>
   </si>
   <si>
-    <t>and he needs your help.</t>
-  </si>
-  <si>
-    <t>Lets touch the blue one</t>
+    <t xml:space="preserve">and he needs your help.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lets touch the blue one</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, no, let's not touch the screen right now.</t>
@@ -151,16 +160,16 @@
     <t xml:space="preserve"> So, if you see a black box on your screen,</t>
   </si>
   <si>
-    <t>that means you're the teller.</t>
-  </si>
-  <si>
-    <t>Your role is a teller.</t>
+    <t xml:space="preserve">that means you're the teller.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your role is a teller.</t>
   </si>
   <si>
     <t xml:space="preserve"> It is your job to help,</t>
   </si>
   <si>
-    <t>It is you're up to tell Smurphy what you see inside of the black box so that he can guess correctly.</t>
+    <t xml:space="preserve">It is you're up to tell Smurphy what you see inside of the black box so that he can guess correctly.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you don't...</t>
@@ -172,19 +181,19 @@
     <t xml:space="preserve"> So if you see a picture inside of a black box, you're going to describe what you see to Smurphy.</t>
   </si>
   <si>
-    <t>You're going to tell him what you see inside of the black box.</t>
+    <t xml:space="preserve">You're going to tell him what you see inside of the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you don't have a black box, that means you're the guesser, and you're holding Smurphy.</t>
   </si>
   <si>
-    <t>You're going to help Smurphy guess.</t>
+    <t xml:space="preserve">You're going to help Smurphy guess.</t>
   </si>
   <si>
     <t xml:space="preserve"> When you think you know what picture is in the black box, you're going to click it.</t>
   </si>
   <si>
-    <t>Like that on your screen.</t>
+    <t xml:space="preserve">Like that on your screen.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, if you guess correctly, you're going to get a smiley face.</t>
@@ -193,19 +202,19 @@
     <t xml:space="preserve"> If you guess incorrectly, you're going to get a frowny face.</t>
   </si>
   <si>
-    <t>But that's okay because you have many times to guess correctly.</t>
-  </si>
-  <si>
-    <t>Why does frowny face be?</t>
-  </si>
-  <si>
-    <t>Frowny face is like...</t>
+    <t xml:space="preserve">But that's okay because you have many times to guess correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Why does frowny face be?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frowny face is like...</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly. Now, we're going to switch off being Teller and Guesser each time, so you</t>
   </si>
   <si>
-    <t>guys will both get chances to help Smurphy guess which picture is in the black box.</t>
+    <t xml:space="preserve">guys will both get chances to help Smurphy guess which picture is in the black box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, remember, if you have the black box, what are you?</t>
@@ -217,34 +226,34 @@
     <t xml:space="preserve"> Exactly. And if you're holding Smurphy, what are you?</t>
   </si>
   <si>
-    <t>The guesser.</t>
+    <t xml:space="preserve">The guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> Exactly. Great job. Now, we're ready to start.</t>
   </si>
   <si>
-    <t>So you can press the blue button.</t>
-  </si>
-  <si>
-    <t>Mine has.</t>
+    <t xml:space="preserve">So you can press the blue button.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mine has.</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, now who has the black box?</t>
   </si>
   <si>
-    <t>Me!</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>So that means you're the teller and you're the guesser.</t>
+    <t xml:space="preserve">Me!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So that means you're the teller and you're the guesser.</t>
   </si>
   <si>
     <t xml:space="preserve"> So do you want to tell [id111] what you see inside of the black box, [id110]?</t>
   </si>
   <si>
-    <t>No.</t>
+    <t xml:space="preserve">No.</t>
   </si>
   <si>
     <t xml:space="preserve"> I mean, we're playing the game.</t>
@@ -253,43 +262,43 @@
     <t xml:space="preserve"> If you want to win the game, you have to tell [id111] what you see in the black box.</t>
   </si>
   <si>
-    <t>We need to help Smurphy.</t>
+    <t xml:space="preserve">We need to help Smurphy.</t>
   </si>
   <si>
     <t xml:space="preserve"> [id111], I have...</t>
   </si>
   <si>
-    <t>A banana</t>
-  </si>
-  <si>
-    <t>A banana.</t>
-  </si>
-  <si>
-    <t>It's a banana Smurphy.</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t xml:space="preserve">A banana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A banana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's a banana Smurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now to help Smurphy, you're going to tap that on the screen.</t>
   </si>
   <si>
-    <t>That? The banana?</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Um, you're going to tap based on what's Gray and told you.</t>
+    <t xml:space="preserve">That? The banana?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Um, you're going to tap based on what's [id110] told you.</t>
   </si>
   <si>
     <t xml:space="preserve"> So if you think that, then yes.</t>
   </si>
   <si>
-    <t>Press the... Press the banana.</t>
-  </si>
-  <si>
-    <t>Great job.</t>
-  </si>
-  <si>
-    <t>Let's go. I got a smiley face.</t>
+    <t xml:space="preserve">Press the... Press the banana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great job.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go. I got a smiley face.</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, now I'm going to switch Smurphy.</t>
@@ -298,16 +307,16 @@
     <t xml:space="preserve"> Now, [id111], do you want to tell great what you see inside of the black box?</t>
   </si>
   <si>
-    <t>A dog.</t>
-  </si>
-  <si>
-    <t>A dog</t>
+    <t xml:space="preserve">A dog.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dog</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, do you want to tap that to help Smurphy guess?</t>
   </si>
   <si>
-    <t>Yeah.</t>
+    <t xml:space="preserve">Yeah.</t>
   </si>
   <si>
     <t xml:space="preserve"> Let's go! You got it, right?</t>
@@ -316,187 +325,187 @@
     <t xml:space="preserve"> There's a house, press the house.</t>
   </si>
   <si>
-    <t>A house</t>
-  </si>
-  <si>
-    <t>Let's go!</t>
-  </si>
-  <si>
-    <t>There's a duck inside.</t>
-  </si>
-  <si>
-    <t>A duck</t>
-  </si>
-  <si>
-    <t>You mean this one?</t>
-  </si>
-  <si>
-    <t>Let's go.</t>
-  </si>
-  <si>
-    <t>There's a person inside.</t>
-  </si>
-  <si>
-    <t>A person</t>
+    <t xml:space="preserve">A house</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a duck inside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A duck</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You mean this one?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let's go.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a person inside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A person</t>
   </si>
   <si>
     <t xml:space="preserve"> Okay, Smurphy, there's a person inside.</t>
   </si>
   <si>
-    <t>So tap.</t>
-  </si>
-  <si>
-    <t>You guys are helping Spurphy.</t>
-  </si>
-  <si>
-    <t>There is a person inside it.</t>
-  </si>
-  <si>
-    <t>The one that's looking down?</t>
-  </si>
-  <si>
-    <t>It's the one looking up.</t>
-  </si>
-  <si>
-    <t>the one looking up</t>
-  </si>
-  <si>
-    <t>You knew it.</t>
-  </si>
-  <si>
-    <t>A airplane inside.</t>
-  </si>
-  <si>
-    <t>A airplane</t>
-  </si>
-  <si>
-    <t>So tap the airplane.</t>
-  </si>
-  <si>
-    <t>Yay!</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>It's pretty fun.</t>
-  </si>
-  <si>
-    <t>There's a...</t>
-  </si>
-  <si>
-    <t>There's somebody in...</t>
-  </si>
-  <si>
-    <t>If its okay Ill show you it</t>
+    <t xml:space="preserve">So tap.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys are helping Spurphy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a person inside it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The one that's looking down?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the one looking up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one looking up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You knew it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A airplane inside.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So tap the airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's pretty fun.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's a...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's somebody in...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If its okay Ill show you it</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh no, you can't show [id111] what you see.</t>
   </si>
   <si>
-    <t>You have to use your words.</t>
+    <t xml:space="preserve">You have to use your words.</t>
   </si>
   <si>
     <t xml:space="preserve"> It's okay, [id110].</t>
   </si>
   <si>
-    <t>Somebody skydiving.</t>
-  </si>
-  <si>
-    <t>somebody skydiving</t>
-  </si>
-  <si>
-    <t>Somebody skydiving?</t>
-  </si>
-  <si>
-    <t>Like this?</t>
-  </si>
-  <si>
-    <t>It's okay. We can try again</t>
+    <t xml:space="preserve">Somebody skydiving.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody skydiving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somebody skydiving?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Like this?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's okay. We can try again</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, let's switch Smurphy.</t>
   </si>
   <si>
-    <t>You got it wrong.</t>
-  </si>
-  <si>
-    <t>It's okay.</t>
+    <t xml:space="preserve">You got it wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's okay.</t>
   </si>
   <si>
     <t xml:space="preserve"> There's a airplane</t>
   </si>
   <si>
-    <t>a airplane</t>
-  </si>
-  <si>
-    <t>Yay.</t>
-  </si>
-  <si>
-    <t>Thank you.</t>
-  </si>
-  <si>
-    <t>No problem.</t>
+    <t xml:space="preserve">a airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No problem.</t>
   </si>
   <si>
     <t xml:space="preserve"> So, tell you what there is.</t>
   </si>
   <si>
-    <t>It's the one that's looking down.</t>
-  </si>
-  <si>
-    <t>the one that's looking down</t>
-  </si>
-  <si>
-    <t>You got right.</t>
-  </si>
-  <si>
-    <t>Tell me.</t>
+    <t xml:space="preserve">It's the one that's looking down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one that's looking down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You got right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tell me.</t>
   </si>
   <si>
     <t xml:space="preserve"> There's a.. a...</t>
   </si>
   <si>
-    <t>a... dog with his hands down</t>
-  </si>
-  <si>
-    <t>A dog with his hands down</t>
+    <t xml:space="preserve">a... dog with his hands down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A dog with his hands down</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, let's only use our words, [id111].</t>
   </si>
   <si>
-    <t>We can't act it out.</t>
-  </si>
-  <si>
-    <t>We can only use our words.</t>
-  </si>
-  <si>
-    <t>His hands...</t>
+    <t xml:space="preserve">We can't act it out.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can only use our words.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">His hands...</t>
   </si>
   <si>
     <t xml:space="preserve"> Ooh! This one, you mean?</t>
   </si>
   <si>
-    <t>I got it wrong.</t>
-  </si>
-  <si>
-    <t>So is there.</t>
+    <t xml:space="preserve">I got it wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So is there.</t>
   </si>
   <si>
     <t xml:space="preserve"> Alright, remember, guys, no, using your hands, only your words for this game.</t>
   </si>
   <si>
-    <t>What is there?</t>
-  </si>
-  <si>
-    <t>It's the one that's in the airplane.</t>
-  </si>
-  <si>
-    <t>the one that's in the airplane</t>
-  </si>
-  <si>
-    <t>It's the one that's the airplane.</t>
+    <t xml:space="preserve">What is there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the one that's in the airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the one that's in the airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's the one that's the airplane.</t>
   </si>
   <si>
     <t xml:space="preserve"> He has, he has...</t>
@@ -508,103 +517,109 @@
     <t xml:space="preserve"> He has, hands with a... like a triangle.</t>
   </si>
   <si>
-    <t>he has hands with a triangle</t>
-  </si>
-  <si>
-    <t>What's there?</t>
-  </si>
-  <si>
-    <t>In the box.</t>
+    <t xml:space="preserve">he has hands with a triangle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What's there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the box.</t>
   </si>
   <si>
     <t xml:space="preserve"> Uh... There's somebody skydiving, but don't! don't choose the one that has the triangle hands.</t>
   </si>
   <si>
+    <t xml:space="preserve">somebody skydiving, not the one that has triangle hands</t>
+  </si>
+  <si>
     <t xml:space="preserve"> No, don't choose that one.</t>
   </si>
   <si>
-    <t>You got right that time.</t>
-  </si>
-  <si>
-    <t>There's someone inside... there's someone with a head down.</t>
-  </si>
-  <si>
-    <t>someone with a head down</t>
-  </si>
-  <si>
-    <t>Nice.</t>
-  </si>
-  <si>
-    <t>Not in the airplane.</t>
-  </si>
-  <si>
-    <t>What is it?</t>
-  </si>
-  <si>
-    <t>There is someone with their triangle hands.</t>
-  </si>
-  <si>
-    <t>someone with their triangle hands</t>
-  </si>
-  <si>
-    <t>There's...</t>
-  </si>
-  <si>
-    <t>There's somebody looking down.</t>
-  </si>
-  <si>
-    <t>somebody looking down</t>
-  </si>
-  <si>
-    <t>You got it right</t>
-  </si>
-  <si>
-    <t>This actually...</t>
-  </si>
-  <si>
-    <t>There is someone...</t>
-  </si>
-  <si>
-    <t>in an airplane</t>
-  </si>
-  <si>
-    <t>I...</t>
-  </si>
-  <si>
-    <t>A airplane?</t>
-  </si>
-  <si>
-    <t>There's someone in an airplane.</t>
-  </si>
-  <si>
-    <t>someone in an airplane</t>
-  </si>
-  <si>
-    <t>Do you know I just realized?</t>
+    <t xml:space="preserve">You got right that time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's someone inside... there's someone with a head down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone inside with a head down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not in the airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">not in the airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is it?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is someone with their triangle hands.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone with their triangle hands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's somebody looking down.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">somebody looking down</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You got it right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This actually...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is someone...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in an airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A airplane?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There's someone in an airplane.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">someone in an airplane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you know I just realized?</t>
   </si>
   <si>
     <t xml:space="preserve"> Wow, if you guys finished the game,</t>
   </si>
   <si>
-    <t>Smurphy's so happy.</t>
-  </si>
-  <si>
-    <t>You guys had such a good job at helping him guess.</t>
-  </si>
-  <si>
-    <t>Thank you guys for playing my game.</t>
-  </si>
-  <si>
-    <t>Can we press the X?</t>
+    <t xml:space="preserve">Smurphy's so happy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You guys had such a good job at helping him guess.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thank you guys for playing my game.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can we press the X?</t>
   </si>
   <si>
     <t xml:space="preserve"> Oh, no, it's fine.</t>
   </si>
   <si>
-    <t>I can handle everything else.</t>
-  </si>
-  <si>
-    <t>All right.</t>
+    <t xml:space="preserve">I can handle everything else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All right.</t>
   </si>
   <si>
     <t xml:space="preserve"> Now, I'm going to...</t>
@@ -613,24 +628,45 @@
     <t xml:space="preserve"> Oh, I can put your name tags on for you.</t>
   </si>
   <si>
-    <t>I'm going to stop the video.</t>
+    <t xml:space="preserve">I'm going to stop the video.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="5">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <scheme val="minor"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -638,32 +674,66 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -674,94 +744,90 @@
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4285f4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ea4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="fbbc04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="34a853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="ff6d01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="46bdc6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="1155cc"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
                 <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
                 <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
                 <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
                 <a:lumMod val="102000"/>
                 <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
                 <a:lumMod val="100000"/>
                 <a:shade val="100000"/>
               </a:schemeClr>
@@ -769,33 +835,24 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
                 <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
@@ -808,13 +865,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -824,15 +875,13 @@
         <a:solidFill>
           <a:schemeClr val="phClr">
             <a:tint val="95000"/>
-            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="93000"/>
-                <a:satMod val="150000"/>
                 <a:shade val="98000"/>
                 <a:lumMod val="102000"/>
               </a:schemeClr>
@@ -840,7 +889,6 @@
             <a:gs pos="50000">
               <a:schemeClr val="phClr">
                 <a:tint val="98000"/>
-                <a:satMod val="130000"/>
                 <a:shade val="90000"/>
                 <a:lumMod val="103000"/>
               </a:schemeClr>
@@ -848,11 +896,11 @@
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="63000"/>
-                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -861,24 +909,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:H195"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="H186" activeCellId="0" sqref="H186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" min="3" max="3" width="33.75"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="8" max="8" width="18.0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="59.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -904,12 +954,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1000.0</v>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>1000</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -918,12 +968,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1">
-        <v>1000.0</v>
-      </c>
-      <c r="B3" s="1">
-        <v>4000.0</v>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>1000</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>4000</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>10</v>
@@ -932,12 +982,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1">
-        <v>4000.0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>9000.0</v>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>9000</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>12</v>
@@ -946,12 +996,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1">
-        <v>9000.0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10000.0</v>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>9000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>10000</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>13</v>
@@ -960,12 +1010,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1">
-        <v>10000.0</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11000.0</v>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>10000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>11000</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>14</v>
@@ -974,12 +1024,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1">
-        <v>11000.0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>12000.0</v>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>11000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>12000</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>15</v>
@@ -988,12 +1038,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1">
-        <v>12000.0</v>
-      </c>
-      <c r="B8" s="1">
-        <v>18000.0</v>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>12000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>18000</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>16</v>
@@ -1002,12 +1052,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1">
-        <v>18000.0</v>
-      </c>
-      <c r="B9" s="1">
-        <v>24000.0</v>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>18000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>24000</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>17</v>
@@ -1016,12 +1066,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1">
-        <v>24000.0</v>
-      </c>
-      <c r="B10" s="1">
-        <v>29000.0</v>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>24000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>29000</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>18</v>
@@ -1030,12 +1080,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1">
-        <v>29000.0</v>
-      </c>
-      <c r="B11" s="1">
-        <v>30000.0</v>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>29000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>30000</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>19</v>
@@ -1044,12 +1094,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1">
-        <v>30000.0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>31000.0</v>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>30000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>31000</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -1058,12 +1108,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1">
-        <v>31000.0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>32000.0</v>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>31000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>32000</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -1072,12 +1122,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1">
-        <v>32000.0</v>
-      </c>
-      <c r="B14" s="1">
-        <v>33000.0</v>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>32000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>33000</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>23</v>
@@ -1086,12 +1136,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1">
-        <v>33000.0</v>
-      </c>
-      <c r="B15" s="1">
-        <v>38000.0</v>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>33000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>38000</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>24</v>
@@ -1100,12 +1150,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1">
-        <v>38000.0</v>
-      </c>
-      <c r="B16" s="1">
-        <v>43000.0</v>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>38000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>43000</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>25</v>
@@ -1114,12 +1164,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1">
-        <v>43000.0</v>
-      </c>
-      <c r="B17" s="1">
-        <v>44000.0</v>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>43000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>44000</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>25</v>
@@ -1128,12 +1178,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1">
-        <v>44000.0</v>
-      </c>
-      <c r="B18" s="1">
-        <v>46000.0</v>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>44000</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>46000</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
@@ -1142,12 +1192,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1">
-        <v>46000.0</v>
-      </c>
-      <c r="B19" s="1">
-        <v>50000.0</v>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>46000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>50000</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>27</v>
@@ -1156,12 +1206,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1">
-        <v>50000.0</v>
-      </c>
-      <c r="B20" s="1">
-        <v>55000.0</v>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>50000</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>55000</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>28</v>
@@ -1170,12 +1220,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1">
-        <v>55000.0</v>
-      </c>
-      <c r="B21" s="1">
-        <v>57000.0</v>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>55000</v>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>57000</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>29</v>
@@ -1184,12 +1234,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1">
-        <v>57000.0</v>
-      </c>
-      <c r="B22" s="1">
-        <v>62000.0</v>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>57000</v>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>62000</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>30</v>
@@ -1198,12 +1248,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1">
-        <v>62000.0</v>
-      </c>
-      <c r="B23" s="1">
-        <v>68000.0</v>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>62000</v>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>68000</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>31</v>
@@ -1212,12 +1262,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1">
-        <v>68000.0</v>
-      </c>
-      <c r="B24" s="1">
-        <v>72000.0</v>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>68000</v>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>72000</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>32</v>
@@ -1226,12 +1276,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1">
-        <v>72000.0</v>
-      </c>
-      <c r="B25" s="1">
-        <v>74000.0</v>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>72000</v>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>74000</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>33</v>
@@ -1240,12 +1290,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1">
-        <v>74000.0</v>
-      </c>
-      <c r="B26" s="1">
-        <v>76000.0</v>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>74000</v>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>76000</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>34</v>
@@ -1254,12 +1304,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1">
-        <v>76000.0</v>
-      </c>
-      <c r="B27" s="1">
-        <v>78000.0</v>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>76000</v>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>78000</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>35</v>
@@ -1268,12 +1318,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1">
-        <v>78000.0</v>
-      </c>
-      <c r="B28" s="1">
-        <v>79000.0</v>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>78000</v>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>79000</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>36</v>
@@ -1282,12 +1332,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1">
-        <v>79000.0</v>
-      </c>
-      <c r="B29" s="1">
-        <v>85000.0</v>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>79000</v>
+      </c>
+      <c r="B29" s="1" t="n">
+        <v>85000</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>37</v>
@@ -1296,12 +1346,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1">
-        <v>85000.0</v>
-      </c>
-      <c r="B30" s="1">
-        <v>86000.0</v>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>85000</v>
+      </c>
+      <c r="B30" s="1" t="n">
+        <v>86000</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>38</v>
@@ -1310,12 +1360,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1">
-        <v>86000.0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>89000.0</v>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>86000</v>
+      </c>
+      <c r="B31" s="1" t="n">
+        <v>89000</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -1324,12 +1374,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1">
-        <v>89500.0</v>
-      </c>
-      <c r="B32" s="1">
-        <v>92460.0</v>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>89500</v>
+      </c>
+      <c r="B32" s="1" t="n">
+        <v>92460</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>40</v>
@@ -1338,12 +1388,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1">
-        <v>92760.0</v>
-      </c>
-      <c r="B33" s="1">
-        <v>93820.0</v>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1" t="n">
+        <v>92760</v>
+      </c>
+      <c r="B33" s="1" t="n">
+        <v>93820</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>41</v>
@@ -1352,12 +1402,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1">
-        <v>93860.0</v>
-      </c>
-      <c r="B34" s="1">
-        <v>94920.0</v>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="n">
+        <v>93860</v>
+      </c>
+      <c r="B34" s="1" t="n">
+        <v>94920</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>42</v>
@@ -1366,12 +1416,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1">
-        <v>94980.0</v>
-      </c>
-      <c r="B35" s="1">
-        <v>97160.0</v>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1" t="n">
+        <v>94980</v>
+      </c>
+      <c r="B35" s="1" t="n">
+        <v>97160</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>43</v>
@@ -1380,12 +1430,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1">
-        <v>97260.0</v>
-      </c>
-      <c r="B36" s="1">
-        <v>99360.0</v>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1" t="n">
+        <v>97260</v>
+      </c>
+      <c r="B36" s="1" t="n">
+        <v>99360</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>44</v>
@@ -1394,12 +1444,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1">
-        <v>100620.0</v>
-      </c>
-      <c r="B37" s="1">
-        <v>104360.0</v>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1" t="n">
+        <v>100620</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>104360</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>45</v>
@@ -1408,12 +1458,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1">
-        <v>104500.0</v>
-      </c>
-      <c r="B38" s="1">
-        <v>106120.0</v>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1" t="n">
+        <v>104500</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>106120</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>46</v>
@@ -1422,12 +1472,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1">
-        <v>106360.0</v>
-      </c>
-      <c r="B39" s="1">
-        <v>107660.0</v>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1" t="n">
+        <v>106360</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>107660</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>47</v>
@@ -1436,12 +1486,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1">
-        <v>108020.0</v>
-      </c>
-      <c r="B40" s="1">
-        <v>109640.0</v>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1" t="n">
+        <v>108020</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>109640</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>48</v>
@@ -1450,12 +1500,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1">
-        <v>109640.0</v>
-      </c>
-      <c r="B41" s="1">
-        <v>114540.0</v>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="n">
+        <v>109640</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>114540</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>49</v>
@@ -1464,12 +1514,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1">
-        <v>115540.0</v>
-      </c>
-      <c r="B42" s="1">
-        <v>117640.0</v>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1" t="n">
+        <v>115540</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>117640</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>50</v>
@@ -1478,12 +1528,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1">
-        <v>117640.0</v>
-      </c>
-      <c r="B43" s="1">
-        <v>119440.0</v>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1" t="n">
+        <v>117640</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>119440</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>51</v>
@@ -1492,12 +1542,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1">
-        <v>120140.0</v>
-      </c>
-      <c r="B44" s="1">
-        <v>125140.0</v>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1" t="n">
+        <v>120140</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>125140</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>52</v>
@@ -1506,12 +1556,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1">
-        <v>125140.0</v>
-      </c>
-      <c r="B45" s="1">
-        <v>128140.0</v>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1" t="n">
+        <v>125140</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>128140</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>53</v>
@@ -1520,12 +1570,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1">
-        <v>129140.0</v>
-      </c>
-      <c r="B46" s="1">
-        <v>129640.0</v>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="1" t="n">
+        <v>129140</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>129640</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>14</v>
@@ -1534,12 +1584,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1">
-        <v>129640.0</v>
-      </c>
-      <c r="B47" s="1">
-        <v>135640.0</v>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="n">
+        <v>129640</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>135640</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>54</v>
@@ -1548,12 +1598,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1">
-        <v>135640.0</v>
-      </c>
-      <c r="B48" s="1">
-        <v>137960.0</v>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="n">
+        <v>135640</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>137960</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>55</v>
@@ -1562,12 +1612,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1">
-        <v>138500.0</v>
-      </c>
-      <c r="B49" s="1">
-        <v>143580.0</v>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="n">
+        <v>138500</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>143580</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>56</v>
@@ -1576,12 +1626,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1">
-        <v>145340.0</v>
-      </c>
-      <c r="B50" s="1">
-        <v>146880.0</v>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="n">
+        <v>145340</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>146880</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>57</v>
@@ -1590,12 +1640,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1">
-        <v>147680.0</v>
-      </c>
-      <c r="B51" s="1">
-        <v>151860.0</v>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="n">
+        <v>147680</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>151860</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>58</v>
@@ -1604,12 +1654,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1">
-        <v>152180.0</v>
-      </c>
-      <c r="B52" s="1">
-        <v>154720.0</v>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="n">
+        <v>152180</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>154720</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>59</v>
@@ -1618,12 +1668,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1">
-        <v>154720.0</v>
-      </c>
-      <c r="B53" s="1">
-        <v>158400.0</v>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="1" t="n">
+        <v>154720</v>
+      </c>
+      <c r="B53" s="1" t="n">
+        <v>158400</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>60</v>
@@ -1632,12 +1682,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1">
-        <v>158460.0</v>
-      </c>
-      <c r="B54" s="1">
-        <v>160220.0</v>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="1" t="n">
+        <v>158460</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>160220</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>61</v>
@@ -1646,12 +1696,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1">
-        <v>160680.0</v>
-      </c>
-      <c r="B55" s="1">
-        <v>162300.0</v>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="1" t="n">
+        <v>160680</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>162300</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>62</v>
@@ -1660,12 +1710,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1">
-        <v>162300.0</v>
-      </c>
-      <c r="B56" s="1">
-        <v>168060.0</v>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="1" t="n">
+        <v>162300</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>168060</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>63</v>
@@ -1674,12 +1724,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1">
-        <v>168060.0</v>
-      </c>
-      <c r="B57" s="1">
-        <v>172900.0</v>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="n">
+        <v>168060</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>172900</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>64</v>
@@ -1688,12 +1738,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1">
-        <v>172900.0</v>
-      </c>
-      <c r="B58" s="1">
-        <v>177300.0</v>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="1" t="n">
+        <v>172900</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>177300</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>65</v>
@@ -1702,12 +1752,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1">
-        <v>177300.0</v>
-      </c>
-      <c r="B59" s="1">
-        <v>178800.0</v>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="n">
+        <v>177300</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>178800</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>66</v>
@@ -1716,12 +1766,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1">
-        <v>178800.0</v>
-      </c>
-      <c r="B60" s="1">
-        <v>182300.0</v>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="1" t="n">
+        <v>178800</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>182300</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>67</v>
@@ -1730,12 +1780,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1">
-        <v>182300.0</v>
-      </c>
-      <c r="B61" s="1">
-        <v>183300.0</v>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="n">
+        <v>182300</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>183300</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>68</v>
@@ -1744,12 +1794,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1">
-        <v>183300.0</v>
-      </c>
-      <c r="B62" s="1">
-        <v>188300.0</v>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="1" t="n">
+        <v>183300</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>188300</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>69</v>
@@ -1758,12 +1808,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1">
-        <v>188300.0</v>
-      </c>
-      <c r="B63" s="1">
-        <v>191300.0</v>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="1" t="n">
+        <v>188300</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>191300</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>70</v>
@@ -1772,12 +1822,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1">
-        <v>191300.0</v>
-      </c>
-      <c r="B64" s="1">
-        <v>192300.0</v>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="1" t="n">
+        <v>191300</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>192300</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>71</v>
@@ -1786,12 +1836,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1">
-        <v>192300.0</v>
-      </c>
-      <c r="B65" s="1">
-        <v>197300.0</v>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="1" t="n">
+        <v>192300</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>197300</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>72</v>
@@ -1799,16 +1849,16 @@
       <c r="D65" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E65" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1">
-        <v>197300.0</v>
-      </c>
-      <c r="B66" s="1">
-        <v>198300.0</v>
+      <c r="E65" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="1" t="n">
+        <v>197300</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>198300</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>73</v>
@@ -1820,12 +1870,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1">
-        <v>198300.0</v>
-      </c>
-      <c r="B67" s="1">
-        <v>201300.0</v>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="1" t="n">
+        <v>198300</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>201300</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>75</v>
@@ -1834,12 +1884,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1">
-        <v>201300.0</v>
-      </c>
-      <c r="B68" s="1">
-        <v>209300.0</v>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="1" t="n">
+        <v>201300</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>209300</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>76</v>
@@ -1848,12 +1898,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1">
-        <v>209300.0</v>
-      </c>
-      <c r="B69" s="1">
-        <v>210300.0</v>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="n">
+        <v>209300</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>210300</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>77</v>
@@ -1866,12 +1916,12 @@
       </c>
       <c r="G69" s="1"/>
     </row>
-    <row r="70">
-      <c r="A70" s="1">
-        <v>210300.0</v>
-      </c>
-      <c r="B70" s="1">
-        <v>213300.0</v>
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="n">
+        <v>210300</v>
+      </c>
+      <c r="B70" s="1" t="n">
+        <v>213300</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>78</v>
@@ -1880,12 +1930,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1">
-        <v>213300.0</v>
-      </c>
-      <c r="B71" s="1">
-        <v>216300.0</v>
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="1" t="n">
+        <v>213300</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>216300</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>79</v>
@@ -1894,12 +1944,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1">
-        <v>216300.0</v>
-      </c>
-      <c r="B72" s="1">
-        <v>218300.0</v>
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="n">
+        <v>216300</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>218300</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>80</v>
@@ -1908,12 +1958,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1">
-        <v>218300.0</v>
-      </c>
-      <c r="B73" s="1">
-        <v>220300.0</v>
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="1" t="n">
+        <v>218300</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>220300</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>81</v>
@@ -1929,12 +1979,12 @@
         <v>82</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1">
-        <v>220300.0</v>
-      </c>
-      <c r="B74" s="1">
-        <v>222300.0</v>
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="n">
+        <v>220300</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>222300</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>83</v>
@@ -1947,12 +1997,12 @@
       </c>
       <c r="G74" s="1"/>
     </row>
-    <row r="75">
-      <c r="A75" s="1">
-        <v>222300.0</v>
-      </c>
-      <c r="B75" s="1">
-        <v>224300.0</v>
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="n">
+        <v>222300</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>224300</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>84</v>
@@ -1964,12 +2014,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1">
-        <v>224300.0</v>
-      </c>
-      <c r="B76" s="1">
-        <v>228300.0</v>
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="1" t="n">
+        <v>224300</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>228300</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>86</v>
@@ -1978,12 +2028,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1">
-        <v>228300.0</v>
-      </c>
-      <c r="B77" s="1">
-        <v>230300.0</v>
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="1" t="n">
+        <v>228300</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>230300</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>87</v>
@@ -1995,12 +2045,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1">
-        <v>230300.0</v>
-      </c>
-      <c r="B78" s="1">
-        <v>235300.0</v>
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="1" t="n">
+        <v>230300</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>235300</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>88</v>
@@ -2009,12 +2059,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1">
-        <v>235300.0</v>
-      </c>
-      <c r="B79" s="1">
-        <v>239300.0</v>
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="n">
+        <v>235300</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>239300</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>89</v>
@@ -2023,12 +2073,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1">
-        <v>239300.0</v>
-      </c>
-      <c r="B80" s="1">
-        <v>242300.0</v>
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1" t="n">
+        <v>239300</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>242300</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>90</v>
@@ -2040,12 +2090,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1">
-        <v>242300.0</v>
-      </c>
-      <c r="B81" s="1">
-        <v>246300.0</v>
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1" t="n">
+        <v>242300</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>246300</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>91</v>
@@ -2053,16 +2103,16 @@
       <c r="D81" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E81" s="1">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1">
-        <v>246300.0</v>
-      </c>
-      <c r="B82" s="1">
-        <v>248300.0</v>
+      <c r="E81" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1" t="n">
+        <v>246300</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>248300</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>92</v>
@@ -2074,12 +2124,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1">
-        <v>248300.0</v>
-      </c>
-      <c r="B83" s="1">
-        <v>249300.0</v>
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="1" t="n">
+        <v>248300</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>249300</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>93</v>
@@ -2088,12 +2138,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1">
-        <v>249300.0</v>
-      </c>
-      <c r="B84" s="1">
-        <v>256300.0</v>
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1" t="n">
+        <v>249300</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>256300</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>94</v>
@@ -2102,12 +2152,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1">
-        <v>256300.0</v>
-      </c>
-      <c r="B85" s="1">
-        <v>258300.0</v>
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="1" t="n">
+        <v>256300</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>258300</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>95</v>
@@ -2122,12 +2172,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1">
-        <v>258300.0</v>
-      </c>
-      <c r="B86" s="1">
-        <v>262300.0</v>
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="1" t="n">
+        <v>258300</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>262300</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>97</v>
@@ -2136,12 +2186,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1">
-        <v>262300.0</v>
-      </c>
-      <c r="B87" s="1">
-        <v>263300.0</v>
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="1" t="n">
+        <v>262300</v>
+      </c>
+      <c r="B87" s="1" t="n">
+        <v>263300</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>98</v>
@@ -2153,12 +2203,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1">
-        <v>263300.0</v>
-      </c>
-      <c r="B88" s="1">
-        <v>264300.0</v>
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="n">
+        <v>263300</v>
+      </c>
+      <c r="B88" s="1" t="n">
+        <v>264300</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>91</v>
@@ -2167,12 +2217,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1">
-        <v>264300.0</v>
-      </c>
-      <c r="B89" s="1">
-        <v>268300.0</v>
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="1" t="n">
+        <v>264300</v>
+      </c>
+      <c r="B89" s="1" t="n">
+        <v>268300</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>99</v>
@@ -2180,19 +2230,19 @@
       <c r="D89" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E89" s="1">
-        <v>2.0</v>
+      <c r="E89" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1">
-        <v>268300.0</v>
-      </c>
-      <c r="B90" s="1">
-        <v>269300.0</v>
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="1" t="n">
+        <v>268300</v>
+      </c>
+      <c r="B90" s="1" t="n">
+        <v>269300</v>
       </c>
       <c r="C90" s="1" t="s">
         <v>23</v>
@@ -2204,12 +2254,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1">
-        <v>269300.0</v>
-      </c>
-      <c r="B91" s="1">
-        <v>272300.0</v>
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="n">
+        <v>269300</v>
+      </c>
+      <c r="B91" s="1" t="n">
+        <v>272300</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>100</v>
@@ -2224,12 +2274,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1">
-        <v>272300.0</v>
-      </c>
-      <c r="B92" s="1">
-        <v>276300.0</v>
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="1" t="n">
+        <v>272300</v>
+      </c>
+      <c r="B92" s="1" t="n">
+        <v>276300</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>102</v>
@@ -2237,17 +2287,17 @@
       <c r="D92" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E92" s="1">
-        <v>3.0</v>
+      <c r="E92" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="F92" s="1"/>
     </row>
-    <row r="93">
-      <c r="A93" s="1">
-        <v>276300.0</v>
-      </c>
-      <c r="B93" s="1">
-        <v>286300.0</v>
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="1" t="n">
+        <v>276300</v>
+      </c>
+      <c r="B93" s="1" t="n">
+        <v>286300</v>
       </c>
       <c r="C93" s="1" t="s">
         <v>103</v>
@@ -2262,12 +2312,12 @@
         <v>104</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1">
-        <v>286300.0</v>
-      </c>
-      <c r="B94" s="1">
-        <v>288300.0</v>
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="1" t="n">
+        <v>286300</v>
+      </c>
+      <c r="B94" s="1" t="n">
+        <v>288300</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>105</v>
@@ -2279,12 +2329,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1">
-        <v>288300.0</v>
-      </c>
-      <c r="B95" s="1">
-        <v>289300.0</v>
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="1" t="n">
+        <v>288300</v>
+      </c>
+      <c r="B95" s="1" t="n">
+        <v>289300</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>98</v>
@@ -2296,12 +2346,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1">
-        <v>289300.0</v>
-      </c>
-      <c r="B96" s="1">
-        <v>291300.0</v>
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="1" t="n">
+        <v>289300</v>
+      </c>
+      <c r="B96" s="1" t="n">
+        <v>291300</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>106</v>
@@ -2309,16 +2359,16 @@
       <c r="D96" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E96" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1">
-        <v>291300.0</v>
-      </c>
-      <c r="B97" s="1">
-        <v>296300.0</v>
+      <c r="E96" s="1" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="1" t="n">
+        <v>291300</v>
+      </c>
+      <c r="B97" s="1" t="n">
+        <v>296300</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>107</v>
@@ -2333,12 +2383,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1">
-        <v>296300.0</v>
-      </c>
-      <c r="B98" s="1">
-        <v>299300.0</v>
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="1" t="n">
+        <v>296300</v>
+      </c>
+      <c r="B98" s="1" t="n">
+        <v>299300</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>109</v>
@@ -2350,12 +2400,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1">
-        <v>302300.0</v>
-      </c>
-      <c r="B99" s="1">
-        <v>303300.0</v>
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="1" t="n">
+        <v>302300</v>
+      </c>
+      <c r="B99" s="1" t="n">
+        <v>303300</v>
       </c>
       <c r="C99" s="1" t="s">
         <v>110</v>
@@ -2367,12 +2417,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1">
-        <v>303300.0</v>
-      </c>
-      <c r="B100" s="1">
-        <v>305300.0</v>
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="1" t="n">
+        <v>303300</v>
+      </c>
+      <c r="B100" s="1" t="n">
+        <v>305300</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>91</v>
@@ -2380,16 +2430,16 @@
       <c r="D100" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E100" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1">
-        <v>305300.0</v>
-      </c>
-      <c r="B101" s="1">
-        <v>306300.0</v>
+      <c r="E100" s="1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="1" t="n">
+        <v>305300</v>
+      </c>
+      <c r="B101" s="1" t="n">
+        <v>306300</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>111</v>
@@ -2398,12 +2448,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1">
-        <v>306300.0</v>
-      </c>
-      <c r="B102" s="1">
-        <v>311300.0</v>
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="1" t="n">
+        <v>306300</v>
+      </c>
+      <c r="B102" s="1" t="n">
+        <v>311300</v>
       </c>
       <c r="C102" s="1" t="s">
         <v>112</v>
@@ -2418,12 +2468,12 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1">
-        <v>311300.0</v>
-      </c>
-      <c r="B103" s="1">
-        <v>314300.0</v>
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="1" t="n">
+        <v>311300</v>
+      </c>
+      <c r="B103" s="1" t="n">
+        <v>314300</v>
       </c>
       <c r="C103" s="1" t="s">
         <v>113</v>
@@ -2435,12 +2485,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="1">
-        <v>314300.0</v>
-      </c>
-      <c r="B104" s="1">
-        <v>315300.0</v>
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="1" t="n">
+        <v>314300</v>
+      </c>
+      <c r="B104" s="1" t="n">
+        <v>315300</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>98</v>
@@ -2452,12 +2502,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="1">
-        <v>315300.0</v>
-      </c>
-      <c r="B105" s="1">
-        <v>318300.0</v>
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="1" t="n">
+        <v>315300</v>
+      </c>
+      <c r="B105" s="1" t="n">
+        <v>318300</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>106</v>
@@ -2465,16 +2515,16 @@
       <c r="D105" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E105" s="1">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1">
-        <v>318300.0</v>
-      </c>
-      <c r="B106" s="1">
-        <v>323300.0</v>
+      <c r="E105" s="1" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="1" t="n">
+        <v>318300</v>
+      </c>
+      <c r="B106" s="1" t="n">
+        <v>323300</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>114</v>
@@ -2489,12 +2539,12 @@
         <v>115</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="1">
-        <v>323300.0</v>
-      </c>
-      <c r="B107" s="1">
-        <v>326300.0</v>
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="1" t="n">
+        <v>323300</v>
+      </c>
+      <c r="B107" s="1" t="n">
+        <v>326300</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>98</v>
@@ -2506,12 +2556,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="1">
-        <v>326300.0</v>
-      </c>
-      <c r="B108" s="1">
-        <v>328300.0</v>
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="1" t="n">
+        <v>326300</v>
+      </c>
+      <c r="B108" s="1" t="n">
+        <v>328300</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>116</v>
@@ -2519,16 +2569,16 @@
       <c r="D108" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E108" s="1">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1">
-        <v>328300.0</v>
-      </c>
-      <c r="B109" s="1">
-        <v>333300.0</v>
+      <c r="E108" s="1" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="1" t="n">
+        <v>328300</v>
+      </c>
+      <c r="B109" s="1" t="n">
+        <v>333300</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>117</v>
@@ -2543,12 +2593,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="1">
-        <v>333300.0</v>
-      </c>
-      <c r="B110" s="1">
-        <v>335300.0</v>
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="1" t="n">
+        <v>333300</v>
+      </c>
+      <c r="B110" s="1" t="n">
+        <v>335300</v>
       </c>
       <c r="C110" s="1" t="s">
         <v>119</v>
@@ -2560,12 +2610,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="1">
-        <v>335300.0</v>
-      </c>
-      <c r="B111" s="1">
-        <v>337300.0</v>
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="1" t="n">
+        <v>335300</v>
+      </c>
+      <c r="B111" s="1" t="n">
+        <v>337300</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>120</v>
@@ -2574,12 +2624,12 @@
         <v>121</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="1">
-        <v>337300.0</v>
-      </c>
-      <c r="B112" s="1">
-        <v>341300.0</v>
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="1" t="n">
+        <v>337300</v>
+      </c>
+      <c r="B112" s="1" t="n">
+        <v>341300</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>122</v>
@@ -2587,16 +2637,16 @@
       <c r="D112" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E112" s="1">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1">
-        <v>341300.0</v>
-      </c>
-      <c r="B113" s="1">
-        <v>344300.0</v>
+      <c r="E112" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="1" t="n">
+        <v>341300</v>
+      </c>
+      <c r="B113" s="1" t="n">
+        <v>344300</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>123</v>
@@ -2608,12 +2658,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="1">
-        <v>344300.0</v>
-      </c>
-      <c r="B114" s="1">
-        <v>347300.0</v>
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="1" t="n">
+        <v>344300</v>
+      </c>
+      <c r="B114" s="1" t="n">
+        <v>347300</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>124</v>
@@ -2625,12 +2675,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="1">
-        <v>347300.0</v>
-      </c>
-      <c r="B115" s="1">
-        <v>351300.0</v>
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="1" t="n">
+        <v>347300</v>
+      </c>
+      <c r="B115" s="1" t="n">
+        <v>351300</v>
       </c>
       <c r="C115" s="1" t="s">
         <v>125</v>
@@ -2642,12 +2692,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="1">
-        <v>351300.0</v>
-      </c>
-      <c r="B116" s="1">
-        <v>354300.0</v>
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="1" t="n">
+        <v>351300</v>
+      </c>
+      <c r="B116" s="1" t="n">
+        <v>354300</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>126</v>
@@ -2656,12 +2706,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="1">
-        <v>354300.0</v>
-      </c>
-      <c r="B117" s="1">
-        <v>356300.0</v>
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="1" t="n">
+        <v>354300</v>
+      </c>
+      <c r="B117" s="1" t="n">
+        <v>356300</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>127</v>
@@ -2670,12 +2720,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="1">
-        <v>356300.0</v>
-      </c>
-      <c r="B118" s="1">
-        <v>358300.0</v>
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="1" t="n">
+        <v>356300</v>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>358300</v>
       </c>
       <c r="C118" s="1" t="s">
         <v>128</v>
@@ -2684,12 +2734,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="1">
-        <v>358300.0</v>
-      </c>
-      <c r="B119" s="1">
-        <v>361300.0</v>
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="1" t="n">
+        <v>358300</v>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>361300</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>129</v>
@@ -2704,12 +2754,12 @@
         <v>130</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="1">
-        <v>361300.0</v>
-      </c>
-      <c r="B120" s="1">
-        <v>363300.0</v>
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="1" t="n">
+        <v>361300</v>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>363300</v>
       </c>
       <c r="C120" s="1" t="s">
         <v>131</v>
@@ -2721,12 +2771,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="1">
-        <v>363300.0</v>
-      </c>
-      <c r="B121" s="1">
-        <v>364300.0</v>
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="1" t="n">
+        <v>363300</v>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>364300</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>98</v>
@@ -2738,12 +2788,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="1">
-        <v>364300.0</v>
-      </c>
-      <c r="B122" s="1">
-        <v>365300.0</v>
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="1" t="n">
+        <v>364300</v>
+      </c>
+      <c r="B122" s="1" t="n">
+        <v>365300</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>132</v>
@@ -2755,12 +2805,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="1">
-        <v>365300.0</v>
-      </c>
-      <c r="B123" s="1">
-        <v>368300.0</v>
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="1" t="n">
+        <v>365300</v>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>368300</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>133</v>
@@ -2768,16 +2818,16 @@
       <c r="D123" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E123" s="1">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1">
-        <v>368300.0</v>
-      </c>
-      <c r="B124" s="1">
-        <v>370300.0</v>
+      <c r="E123" s="1" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="1" t="n">
+        <v>368300</v>
+      </c>
+      <c r="B124" s="1" t="n">
+        <v>370300</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>134</v>
@@ -2786,12 +2836,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="1">
-        <v>370300.0</v>
-      </c>
-      <c r="B125" s="1">
-        <v>371300.0</v>
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="1" t="n">
+        <v>370300</v>
+      </c>
+      <c r="B125" s="1" t="n">
+        <v>371300</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>135</v>
@@ -2800,12 +2850,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="1">
-        <v>371300.0</v>
-      </c>
-      <c r="B126" s="1">
-        <v>372300.0</v>
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="n">
+        <v>371300</v>
+      </c>
+      <c r="B126" s="1" t="n">
+        <v>372300</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>136</v>
@@ -2814,12 +2864,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="1">
-        <v>372300.0</v>
-      </c>
-      <c r="B127" s="1">
-        <v>375300.0</v>
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="n">
+        <v>372300</v>
+      </c>
+      <c r="B127" s="1" t="n">
+        <v>375300</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>137</v>
@@ -2834,12 +2884,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="1">
-        <v>375300.0</v>
-      </c>
-      <c r="B128" s="1">
-        <v>376300.0</v>
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="n">
+        <v>375300</v>
+      </c>
+      <c r="B128" s="1" t="n">
+        <v>376300</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>139</v>
@@ -2848,12 +2898,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="1">
-        <v>378300.0</v>
-      </c>
-      <c r="B129" s="1">
-        <v>379300.0</v>
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="n">
+        <v>378300</v>
+      </c>
+      <c r="B129" s="1" t="n">
+        <v>379300</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>140</v>
@@ -2865,12 +2915,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="1">
-        <v>379300.0</v>
-      </c>
-      <c r="B130" s="1">
-        <v>380300.0</v>
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="n">
+        <v>379300</v>
+      </c>
+      <c r="B130" s="1" t="n">
+        <v>380300</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>141</v>
@@ -2878,16 +2928,16 @@
       <c r="D130" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E130" s="1">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1">
-        <v>380300.0</v>
-      </c>
-      <c r="B131" s="1">
-        <v>383300.0</v>
+      <c r="E130" s="1" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="1" t="n">
+        <v>380300</v>
+      </c>
+      <c r="B131" s="1" t="n">
+        <v>383300</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>142</v>
@@ -2896,12 +2946,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="1">
-        <v>383300.0</v>
-      </c>
-      <c r="B132" s="1">
-        <v>386300.0</v>
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="1" t="n">
+        <v>383300</v>
+      </c>
+      <c r="B132" s="1" t="n">
+        <v>386300</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>143</v>
@@ -2916,12 +2966,12 @@
         <v>144</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="1">
-        <v>386300.0</v>
-      </c>
-      <c r="B133" s="1">
-        <v>390300.0</v>
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="1" t="n">
+        <v>386300</v>
+      </c>
+      <c r="B133" s="1" t="n">
+        <v>390300</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>145</v>
@@ -2929,16 +2979,16 @@
       <c r="D133" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E133" s="1">
-        <v>11.0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1">
-        <v>390300.0</v>
-      </c>
-      <c r="B134" s="1">
-        <v>392300.0</v>
+      <c r="E133" s="1" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="1" t="n">
+        <v>390300</v>
+      </c>
+      <c r="B134" s="1" t="n">
+        <v>392300</v>
       </c>
       <c r="C134" s="1" t="s">
         <v>146</v>
@@ -2950,12 +3000,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="1">
-        <v>392300.0</v>
-      </c>
-      <c r="B135" s="1">
-        <v>394300.0</v>
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="1" t="n">
+        <v>392300</v>
+      </c>
+      <c r="B135" s="1" t="n">
+        <v>394300</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>147</v>
@@ -2967,12 +3017,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="1">
-        <v>394300.0</v>
-      </c>
-      <c r="B136" s="1">
-        <v>400300.0</v>
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="1" t="n">
+        <v>394300</v>
+      </c>
+      <c r="B136" s="1" t="n">
+        <v>400300</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>148</v>
@@ -2987,12 +3037,12 @@
         <v>149</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="1">
-        <v>400300.0</v>
-      </c>
-      <c r="B137" s="1">
-        <v>402800.0</v>
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="1" t="n">
+        <v>400300</v>
+      </c>
+      <c r="B137" s="1" t="n">
+        <v>402800</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>150</v>
@@ -3001,12 +3051,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="1">
-        <v>402800.0</v>
-      </c>
-      <c r="B138" s="1">
-        <v>403800.0</v>
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="1" t="n">
+        <v>402800</v>
+      </c>
+      <c r="B138" s="1" t="n">
+        <v>403800</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>151</v>
@@ -3015,12 +3065,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="1">
-        <v>403800.0</v>
-      </c>
-      <c r="B139" s="1">
-        <v>404800.0</v>
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="1" t="n">
+        <v>403800</v>
+      </c>
+      <c r="B139" s="1" t="n">
+        <v>404800</v>
       </c>
       <c r="C139" s="1" t="s">
         <v>152</v>
@@ -3029,12 +3079,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="1">
-        <v>404800.0</v>
-      </c>
-      <c r="B140" s="1">
-        <v>405800.0</v>
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="1" t="n">
+        <v>404800</v>
+      </c>
+      <c r="B140" s="1" t="n">
+        <v>405800</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>153</v>
@@ -3046,12 +3096,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="1">
-        <v>405800.0</v>
-      </c>
-      <c r="B141" s="1">
-        <v>408800.0</v>
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="1" t="n">
+        <v>405800</v>
+      </c>
+      <c r="B141" s="1" t="n">
+        <v>408800</v>
       </c>
       <c r="C141" s="1" t="s">
         <v>154</v>
@@ -3063,12 +3113,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="1">
-        <v>408800.0</v>
-      </c>
-      <c r="B142" s="1">
-        <v>409800.0</v>
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="1" t="n">
+        <v>408800</v>
+      </c>
+      <c r="B142" s="1" t="n">
+        <v>409800</v>
       </c>
       <c r="C142" s="1" t="s">
         <v>135</v>
@@ -3080,12 +3130,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="1">
-        <v>409800.0</v>
-      </c>
-      <c r="B143" s="1">
-        <v>411300.0</v>
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="1" t="n">
+        <v>409800</v>
+      </c>
+      <c r="B143" s="1" t="n">
+        <v>411300</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>155</v>
@@ -3098,12 +3148,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="1">
-        <v>411300.0</v>
-      </c>
-      <c r="B144" s="1">
-        <v>412800.0</v>
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="1" t="n">
+        <v>411300</v>
+      </c>
+      <c r="B144" s="1" t="n">
+        <v>412800</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>156</v>
@@ -3111,16 +3161,16 @@
       <c r="D144" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E144" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1">
-        <v>412800.0</v>
-      </c>
-      <c r="B145" s="1">
-        <v>417800.0</v>
+      <c r="E144" s="1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="1" t="n">
+        <v>412800</v>
+      </c>
+      <c r="B145" s="1" t="n">
+        <v>417800</v>
       </c>
       <c r="C145" s="1" t="s">
         <v>157</v>
@@ -3129,12 +3179,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="1">
-        <v>417800.0</v>
-      </c>
-      <c r="B146" s="1">
-        <v>419800.0</v>
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="1" t="n">
+        <v>417800</v>
+      </c>
+      <c r="B146" s="1" t="n">
+        <v>419800</v>
       </c>
       <c r="C146" s="1" t="s">
         <v>158</v>
@@ -3146,12 +3196,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="1">
-        <v>419800.0</v>
-      </c>
-      <c r="B147" s="1">
-        <v>423800.0</v>
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="1" t="n">
+        <v>419800</v>
+      </c>
+      <c r="B147" s="1" t="n">
+        <v>423800</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>159</v>
@@ -3166,12 +3216,12 @@
         <v>160</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="1">
-        <v>423800.0</v>
-      </c>
-      <c r="B148" s="1">
-        <v>430300.0</v>
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="1" t="n">
+        <v>423800</v>
+      </c>
+      <c r="B148" s="1" t="n">
+        <v>430300</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>161</v>
@@ -3183,12 +3233,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="1">
-        <v>430300.0</v>
-      </c>
-      <c r="B149" s="1">
-        <v>435300.0</v>
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="1" t="n">
+        <v>430300</v>
+      </c>
+      <c r="B149" s="1" t="n">
+        <v>435300</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>145</v>
@@ -3196,16 +3246,16 @@
       <c r="D149" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E149" s="1">
-        <v>13.0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1">
-        <v>435300.0</v>
-      </c>
-      <c r="B150" s="1">
-        <v>436800.0</v>
+      <c r="E149" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="1" t="n">
+        <v>435300</v>
+      </c>
+      <c r="B150" s="1" t="n">
+        <v>436800</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>162</v>
@@ -3217,12 +3267,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="1">
-        <v>436800.0</v>
-      </c>
-      <c r="B151" s="1">
-        <v>439300.0</v>
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="1" t="n">
+        <v>436800</v>
+      </c>
+      <c r="B151" s="1" t="n">
+        <v>439300</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>163</v>
@@ -3231,12 +3281,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="1">
-        <v>439300.0</v>
-      </c>
-      <c r="B152" s="1">
-        <v>443300.0</v>
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="1" t="n">
+        <v>439300</v>
+      </c>
+      <c r="B152" s="1" t="n">
+        <v>443300</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>164</v>
@@ -3251,12 +3301,12 @@
         <v>165</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="1">
-        <v>443300.0</v>
-      </c>
-      <c r="B153" s="1">
-        <v>448800.0</v>
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="1" t="n">
+        <v>443300</v>
+      </c>
+      <c r="B153" s="1" t="n">
+        <v>448800</v>
       </c>
       <c r="C153" s="1" t="s">
         <v>166</v>
@@ -3264,19 +3314,19 @@
       <c r="D153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E153" s="1">
-        <v>14.0</v>
+      <c r="E153" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="1">
-        <v>448800.0</v>
-      </c>
-      <c r="B154" s="1">
-        <v>451800.0</v>
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="1" t="n">
+        <v>448800</v>
+      </c>
+      <c r="B154" s="1" t="n">
+        <v>451800</v>
       </c>
       <c r="C154" s="1" t="s">
         <v>167</v>
@@ -3288,12 +3338,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="1">
-        <v>451800.0</v>
-      </c>
-      <c r="B155" s="1">
-        <v>459560.0</v>
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="1" t="n">
+        <v>451800</v>
+      </c>
+      <c r="B155" s="1" t="n">
+        <v>459560</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>168</v>
@@ -3305,18 +3355,18 @@
         <v>74</v>
       </c>
       <c r="H155" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1">
-        <v>459560.0</v>
-      </c>
-      <c r="B156" s="1">
-        <v>463880.0</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="1" t="n">
+        <v>459560</v>
+      </c>
+      <c r="B156" s="1" t="n">
+        <v>463880</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D156" s="1" t="s">
         <v>9</v>
@@ -3325,32 +3375,32 @@
         <v>74</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="1">
-        <v>463880.0</v>
-      </c>
-      <c r="B157" s="1">
-        <v>466180.0</v>
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="1" t="n">
+        <v>463880</v>
+      </c>
+      <c r="B157" s="1" t="n">
+        <v>466180</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D157" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E157" s="1">
-        <v>15.0</v>
+      <c r="E157" s="1" t="n">
+        <v>15</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="1">
-        <v>466180.0</v>
-      </c>
-      <c r="B158" s="1">
-        <v>467180.0</v>
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="1" t="n">
+        <v>466180</v>
+      </c>
+      <c r="B158" s="1" t="n">
+        <v>467180</v>
       </c>
       <c r="C158" s="1" t="s">
         <v>140</v>
@@ -3359,12 +3409,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="1">
-        <v>467180.0</v>
-      </c>
-      <c r="B159" s="1">
-        <v>468180.0</v>
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="1" t="n">
+        <v>467180</v>
+      </c>
+      <c r="B159" s="1" t="n">
+        <v>468180</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>14</v>
@@ -3373,15 +3423,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="1">
-        <v>468180.0</v>
-      </c>
-      <c r="B160" s="1">
-        <v>474040.0</v>
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="1" t="n">
+        <v>468180</v>
+      </c>
+      <c r="B160" s="1" t="n">
+        <v>474040</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D160" s="1" t="s">
         <v>20</v>
@@ -3390,32 +3440,32 @@
         <v>74</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1">
-        <v>474040.0</v>
-      </c>
-      <c r="B161" s="1">
-        <v>475040.0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="1" t="n">
+        <v>474040</v>
+      </c>
+      <c r="B161" s="1" t="n">
+        <v>475040</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D161" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E161" s="1">
-        <v>16.0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1">
-        <v>475040.0</v>
-      </c>
-      <c r="B162" s="1">
-        <v>480040.0</v>
+      <c r="E161" s="1" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="1" t="n">
+        <v>475040</v>
+      </c>
+      <c r="B162" s="1" t="n">
+        <v>480040</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>158</v>
@@ -3427,12 +3477,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="1">
-        <v>480040.0</v>
-      </c>
-      <c r="B163" s="1">
-        <v>484040.0</v>
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="1" t="n">
+        <v>480040</v>
+      </c>
+      <c r="B163" s="1" t="n">
+        <v>484040</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>129</v>
@@ -3447,15 +3497,15 @@
         <v>130</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="1">
-        <v>484040.0</v>
-      </c>
-      <c r="B164" s="1">
-        <v>487040.0</v>
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="1" t="n">
+        <v>484040</v>
+      </c>
+      <c r="B164" s="1" t="n">
+        <v>487040</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D164" s="1" t="s">
         <v>9</v>
@@ -3463,13 +3513,16 @@
       <c r="F164" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1">
-        <v>487040.0</v>
-      </c>
-      <c r="B165" s="1">
-        <v>491040.0</v>
+      <c r="H164" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="1" t="n">
+        <v>487040</v>
+      </c>
+      <c r="B165" s="1" t="n">
+        <v>491040</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>145</v>
@@ -3477,19 +3530,19 @@
       <c r="D165" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E165" s="1">
-        <v>17.0</v>
+      <c r="E165" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="1">
-        <v>491040.0</v>
-      </c>
-      <c r="B166" s="1">
-        <v>494040.0</v>
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="1" t="n">
+        <v>491040</v>
+      </c>
+      <c r="B166" s="1" t="n">
+        <v>494040</v>
       </c>
       <c r="C166" s="1" t="s">
         <v>140</v>
@@ -3501,15 +3554,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="1">
-        <v>494040.0</v>
-      </c>
-      <c r="B167" s="1">
-        <v>497040.0</v>
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="1" t="n">
+        <v>494040</v>
+      </c>
+      <c r="B167" s="1" t="n">
+        <v>497040</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D167" s="1" t="s">
         <v>9</v>
@@ -3518,15 +3571,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="1">
-        <v>497040.0</v>
-      </c>
-      <c r="B168" s="1">
-        <v>502040.0</v>
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="1" t="n">
+        <v>497040</v>
+      </c>
+      <c r="B168" s="1" t="n">
+        <v>502040</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D168" s="1" t="s">
         <v>20</v>
@@ -3535,35 +3588,35 @@
         <v>74</v>
       </c>
       <c r="H168" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1">
-        <v>502040.0</v>
-      </c>
-      <c r="B169" s="1">
-        <v>508040.0</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="1" t="n">
+        <v>502040</v>
+      </c>
+      <c r="B169" s="1" t="n">
+        <v>508040</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D169" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E169" s="1">
-        <v>18.0</v>
+      <c r="E169" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="F169" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="1">
-        <v>508040.0</v>
-      </c>
-      <c r="B170" s="1">
-        <v>510040.0</v>
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="1" t="n">
+        <v>508040</v>
+      </c>
+      <c r="B170" s="1" t="n">
+        <v>510040</v>
       </c>
       <c r="C170" s="1" t="s">
         <v>158</v>
@@ -3575,15 +3628,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="1">
-        <v>510040.0</v>
-      </c>
-      <c r="B171" s="1">
-        <v>512040.0</v>
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="1" t="n">
+        <v>510040</v>
+      </c>
+      <c r="B171" s="1" t="n">
+        <v>512040</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D171" s="1" t="s">
         <v>9</v>
@@ -3592,15 +3645,15 @@
         <v>74</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1">
-        <v>512040.0</v>
-      </c>
-      <c r="B172" s="1">
-        <v>515040.0</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="1" t="n">
+        <v>512040</v>
+      </c>
+      <c r="B172" s="1" t="n">
+        <v>515040</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>120</v>
@@ -3608,19 +3661,19 @@
       <c r="D172" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E172" s="1">
-        <v>19.0</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1">
-        <v>515040.0</v>
-      </c>
-      <c r="B173" s="1">
-        <v>517040.0</v>
+      <c r="E172" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="1" t="n">
+        <v>515040</v>
+      </c>
+      <c r="B173" s="1" t="n">
+        <v>517040</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D173" s="1" t="s">
         <v>9</v>
@@ -3629,15 +3682,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="1">
-        <v>517040.0</v>
-      </c>
-      <c r="B174" s="1">
-        <v>521040.0</v>
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="1" t="n">
+        <v>517040</v>
+      </c>
+      <c r="B174" s="1" t="n">
+        <v>521040</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D174" s="1" t="s">
         <v>9</v>
@@ -3646,15 +3699,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="1">
-        <v>521040.0</v>
-      </c>
-      <c r="B175" s="1">
-        <v>523040.0</v>
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="1" t="n">
+        <v>521040</v>
+      </c>
+      <c r="B175" s="1" t="n">
+        <v>523040</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D175" s="1" t="s">
         <v>20</v>
@@ -3663,15 +3716,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="1">
-        <v>523040.0</v>
-      </c>
-      <c r="B176" s="1">
-        <v>525040.0</v>
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="1" t="n">
+        <v>523040</v>
+      </c>
+      <c r="B176" s="1" t="n">
+        <v>525040</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D176" s="1" t="s">
         <v>20</v>
@@ -3680,15 +3733,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="1">
-        <v>525040.0</v>
-      </c>
-      <c r="B177" s="1">
-        <v>526040.0</v>
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="1" t="n">
+        <v>525040</v>
+      </c>
+      <c r="B177" s="1" t="n">
+        <v>526040</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D177" s="1" t="s">
         <v>20</v>
@@ -3697,15 +3750,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="1">
-        <v>526040.0</v>
-      </c>
-      <c r="B178" s="1">
-        <v>531040.0</v>
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="1" t="n">
+        <v>526040</v>
+      </c>
+      <c r="B178" s="1" t="n">
+        <v>531040</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D178" s="1" t="s">
         <v>9</v>
@@ -3714,15 +3767,15 @@
         <v>85</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="1">
-        <v>531040.0</v>
-      </c>
-      <c r="B179" s="1">
-        <v>532800.0</v>
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="1" t="n">
+        <v>531040</v>
+      </c>
+      <c r="B179" s="1" t="n">
+        <v>532800</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D179" s="1" t="s">
         <v>20</v>
@@ -3731,15 +3784,15 @@
         <v>74</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1">
-        <v>534420.0</v>
-      </c>
-      <c r="B180" s="1">
-        <v>534860.0</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="1" t="n">
+        <v>534420</v>
+      </c>
+      <c r="B180" s="1" t="n">
+        <v>534860</v>
       </c>
       <c r="C180" s="1" t="s">
         <v>120</v>
@@ -3748,26 +3801,26 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="1">
-        <v>536580.0</v>
-      </c>
-      <c r="B181" s="1">
-        <v>538160.0</v>
+    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="1" t="n">
+        <v>536580</v>
+      </c>
+      <c r="B181" s="1" t="n">
+        <v>538160</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D181" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="1">
-        <v>539380.0</v>
-      </c>
-      <c r="B182" s="1">
-        <v>539980.0</v>
+    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="1" t="n">
+        <v>539380</v>
+      </c>
+      <c r="B182" s="1" t="n">
+        <v>539980</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>14</v>
@@ -3776,54 +3829,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="1">
-        <v>540560.0</v>
-      </c>
-      <c r="B183" s="1">
-        <v>542540.0</v>
+    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="1" t="n">
+        <v>540560</v>
+      </c>
+      <c r="B183" s="1" t="n">
+        <v>542540</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D183" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="1">
-        <v>542780.0</v>
-      </c>
-      <c r="B184" s="1">
-        <v>544060.0</v>
+    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="1" t="n">
+        <v>542780</v>
+      </c>
+      <c r="B184" s="1" t="n">
+        <v>544060</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D184" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="1">
-        <v>544200.0</v>
-      </c>
-      <c r="B185" s="1">
-        <v>546260.0</v>
+    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="1" t="n">
+        <v>544200</v>
+      </c>
+      <c r="B185" s="1" t="n">
+        <v>546260</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D185" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="1">
-        <v>546420.0</v>
-      </c>
-      <c r="B186" s="1">
-        <v>546940.0</v>
+    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="1" t="n">
+        <v>546420</v>
+      </c>
+      <c r="B186" s="1" t="n">
+        <v>546940</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>140</v>
@@ -3832,12 +3885,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="1">
-        <v>547440.0</v>
-      </c>
-      <c r="B187" s="1">
-        <v>548040.0</v>
+    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="1" t="n">
+        <v>547440</v>
+      </c>
+      <c r="B187" s="1" t="n">
+        <v>548040</v>
       </c>
       <c r="C187" s="1" t="s">
         <v>140</v>
@@ -3846,119 +3899,125 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="1">
-        <v>548040.0</v>
-      </c>
-      <c r="B188" s="1">
-        <v>549220.0</v>
+    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="1" t="n">
+        <v>548040</v>
+      </c>
+      <c r="B188" s="1" t="n">
+        <v>549220</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D188" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="1">
-        <v>549800.0</v>
-      </c>
-      <c r="B189" s="1">
-        <v>551420.0</v>
+    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="1" t="n">
+        <v>549800</v>
+      </c>
+      <c r="B189" s="1" t="n">
+        <v>551420</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="1">
-        <v>551800.0</v>
-      </c>
-      <c r="B190" s="1">
-        <v>552800.0</v>
+    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="1" t="n">
+        <v>551800</v>
+      </c>
+      <c r="B190" s="1" t="n">
+        <v>552800</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="1">
-        <v>552900.0</v>
-      </c>
-      <c r="B191" s="1">
-        <v>554240.0</v>
+    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="1" t="n">
+        <v>552900</v>
+      </c>
+      <c r="B191" s="1" t="n">
+        <v>554240</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D191" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="1">
-        <v>554780.0</v>
-      </c>
-      <c r="B192" s="1">
-        <v>555080.0</v>
+    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="1" t="n">
+        <v>554780</v>
+      </c>
+      <c r="B192" s="1" t="n">
+        <v>555080</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D192" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="1">
-        <v>555580.0</v>
-      </c>
-      <c r="B193" s="1">
-        <v>557380.0</v>
+    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="1" t="n">
+        <v>555580</v>
+      </c>
+      <c r="B193" s="1" t="n">
+        <v>557380</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D193" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="1">
-        <v>557380.0</v>
-      </c>
-      <c r="B194" s="1">
-        <v>559200.0</v>
+    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="1" t="n">
+        <v>557380</v>
+      </c>
+      <c r="B194" s="1" t="n">
+        <v>559200</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D194" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="1">
-        <v>559380.0</v>
-      </c>
-      <c r="B195" s="1">
-        <v>560660.0</v>
+    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="1" t="n">
+        <v>559380</v>
+      </c>
+      <c r="B195" s="1" t="n">
+        <v>560660</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D195" s="1" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>